--- a/Screenshots/pilot_ep_1_final_script.xlsx
+++ b/Screenshots/pilot_ep_1_final_script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="238">
   <si>
     <t>start_time</t>
   </si>
@@ -25,34 +25,22 @@
     <t>hindi</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan तो, तुम्हें कैसा लगा? nan यह तुम्हारे लिए है, है यह हम दोनों के लिए है। जाना मत।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> चिंता मत करो। मेरे पैरों में इतना खून नहीं बचा कि कहीं और जा सकूँ।</t>
+    <t xml:space="preserve"> nan तो, तुम्हें कैसा लगा? nan यह तुम्हारे लिए है, है न? यह हम दोनों के लिए है। जाना मत। चिंता मत करो। मेरे पैरों में  इतना खून नहीं बचा कि कहीं और जा सकू।</t>
   </si>
   <si>
     <t xml:space="preserve"> nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan हेलो, चार्ली बोल रहा हूँ। बीप की आवाज़ सुनते ही अपनी बात कहें। nan सुनो, घटिया इंसान, मैं अपने साथ ऐसा बर्ताव नहीं होने दूँगी।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> या तो मुझे फ़ोन करो, या तुम्हें बहुत अफ़सोस होने वाला है।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan वह कौन थी? nan एक टेलीमार्केटर जो मंकी मैन कहकर बुलाती है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मैं कुछ अजीब सूची में हूँ। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अच्छा, यह एक औरत है जिसके साथ एक बार बाहर गया और वह थोड़ी चिपकू हो गई। तुम एक बहुत खराब लड़के हो।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> और फिर भी, तमाचे हमेशा तुम्हें पड़ते हैं। nan nan nan हेलो, चार्ली बोल रहा हूँ। बीप की आवाज़ पर अपनी बात कहें। nan चार्ली, एलन बोल रहा हूँ। तुम्हारा भाई। कोई ख़ास बात नहीं, बस बात करना चाहता था।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मेरी पत्नी ने मुझे निकाल दिया, और मेरी जीने की इच्छा ख़त्म हो रही है। जब भी मौका मिले, मुझे वाकई अच्छा लगेगा, मुझे नहीं पता एलन, इस बारे में जानकर दुख हुआ। तो, तुम कहाँ जाओगे, होटल में? वाह। nan nan ख़ैर, हाँ, मुझे लगता है कि तुम यहाँ रह सकते हो। nan ठीक है। जब तुम यहाँ आओगे तब मिलता हूँ।</t>
+    <t xml:space="preserve"> nan हेलो, चार्ली बोल रहा हूँ।  बीप की आवाज़ सुनते ही अपनी बात कहें। nan सुनो, घटिया इंसान,  मैं अपने साथ ऐसा बर्ताव नहीं होने टूँगी। या तो मुझे फ़ोन करो,  या तुम्हें बहुत अफ़सोस होने वाला है।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan वह कौन थी? nan एक टेलीमार्केटर  जो मंकी मैन कहकर बुलाती है?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मैं कुछ अजीब सूची में हूँ। nan अच्छा, यह एक औरत है जिसके साथ एक बार  बाहर गया और वह थोड़ी चिपकू हो गई। तुम एक बहुत खराब लड़के हो।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> और फिर भी, तमाचे हमेशा तुम्हें पड़ते हैं। nan nan nan हेलो, चार्ली बोल रहा हूँ।  बीप की आवाज़ पर अपनी बात कहें। nan चार्ली, एलन बोल रहा हूँ। तुम्हारा भाई। कोई ख़ास बात नहीं,  बस बात करना चाहता था। मेरी पत्नी ने मुझे निकाल दिया,  और मेरी जीने की इच्छा ख़त्म हो रही है। जब भी मौका मिले,  मुझे वाकई अच्छा लगेगा, मुझे नहीं पता एलन, इस बारे में जानकर दुख हुआ। तो, तुम कहाँ जाओगे, होटल में? वाह। nan nan ख़ैर, हाँ, मुझे लगता है  कि तुम यहाँ रह सकते हो। nan ठीक है। जब तुम यहाँ आओगे तब मिलता हूँ।</t>
   </si>
   <si>
     <t xml:space="preserve"> जल्दी-जल्दी कर लेते हैं।</t>
@@ -61,73 +49,49 @@
     <t xml:space="preserve"> nan nan nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> यह रुकेगी? क्योंकि मैंने अपनी कार इसकी कार के पीछे लगाई है। nan nan nan बारह साल, और उसने मुझे निकाल दिया। मतलब, शादी की कसमों का क्या मतलब?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> पता है, दम तक।" कौन मरा? मैं। और ही वह। तुम मेरे घर में अंदर कैसे आए? nan अच्छा, चार्ली, नकली पत्थर में चाबी तभी छिपती है जब दूसरे पत्थर साथ में हों। nan कि तुम्हारे पायदान पर हो।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> माफ़ करना, पर अगर तुम नकली पत्थर को दूसरे पत्थरों के ढेर में रखोगे, तो नशे की हालत में उसे ढूँढना कठिन होगा। nan मैं एक अच्छा पति हूँ। भरोसेमंद हूँ। nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> बेहूदा मत बनो। जूड़िथ को सेक्स भी पसंद नहीं। मतलब, वह कहती रहती दम घुट रहा है, पता है? वह बोलती रहती, दम घुट रहा है।" इसका क्या मतलब है, क्या किसी औरत ने तुमसे कभी कहा? ख़ैर, हाँ। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> पर वह औरत नहीं जिसे सेक्स पसंद नहीं। nan और जेक। इससे जेक बस बर्बाद हो जाएगा। बेटा। nan इन दिनों किशोर काफ़ी विवेकशील होते हैं। nan मैं जा रही हूँ। तुम दोनों बात करो। कल फ़ोन करूँगी। तुम तुम्हारी पत्नी का सुनकर दुख हुआ।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> छोड़ो, तुम्हारे जाने से ये कौन से साथ रहने लगेंगे। nan यह तब तक है जब तक हालात सुधरते नहीं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अधिक से अधिक कुछ दिन। उसका दिमाग ठिकाने जाएगा।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ। औरतें यही करती हैं। nan मेहमान वाले कमरे में रहो। मैं चादरें लाता हूँ। वह ठीक है। मैं अपनी चादरें लाया हूँ। nan मुझे अपनी चादरें पसंद हैं। nan है, फ़िर, गुड नाइट। का हम मुश्किल से एक-दूसरे से बात करते हैं। nan तुम क्या बात करना चाहते हो? मुझे नहीं पता। सैन फर्नाडो वैली काइरोप्रैक्टिक संघ ने मुझे काइरोप्रैक्टर ऑफ़ ईयर नामित किया। है, फ़िर। गुड नाइट। अपने बारे में बताओ? nan ख़ैर, कहने को ज़्यादा नहीं है।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मैं थोड़ा सा काम करके काफ़ी पैसे बनाता हूँ। nan सुंदर औरतों साथ सोता हूँ जिन्हें मेरी भावनाओं से मतलब नहीं। जैगुआर चलाता और बीच पर रहता हूँ, और कभी-कभी दिन के बीच में, बिना किसी वजह के, अपने लिए मार्गरीटा का बड़ा जग बनाता हूँ, nan nan</t>
+    <t xml:space="preserve"> यह रुकेगी? क्‍योंकि मैंने  अपनी कार इसकी कार के पीछे लगाई है। nan nan nan बारह साल, और उसने मुझे निकाल दिया। मतलब, शादी की कसमों का क्या मतलब?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पता है, "मरते दम तक।"  कौन मरा? न मैं। और न ही वह। तुम मेरे घर में अंदर कैसे आए? nan अच्छा, चार्ली, नकली पत्थर में चाबी  तभी छिपती है जब दूसरे पत्थर साथ में हों। nan न कि तुम्हारे पायदान पर हो। माफ़ करना, पर अगर तुम नकली पत्थर को  दूसरे पत्थरों के ढेर में रखोगे तो नशे की हालत में  उसे ढूँढना कठिन होगा। nan मैं एक अच्छा पति हूँ। भरोसेमंद हूँ। nan nan बेहूदा मत बनो।  जूड़िथ को सेक्स भी पसंद नहीं। मतलब, वह कहती रहती  दम घुट रहा है, पता है? वह बोलती रहती, "मैरा दम घुट रहा है।" इसका क्या मतलब है,  क्या किसी औरत ने तुमसे कभी कहा? ख़ैर, हाँ। nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पर वह औरत नहीं जिसे सेक्स पसंद नहीं। nan और जेक। इससे जेक बस बर्बाद हो जाएगा। -जेक?  -मेरा बेटा। nan इन दिनों किशोर काफ़ी विवेकशील होते हैं। nan -चार्ली, मैं जा रही हूँ।  -नहीं। तुम दोनों बात करो। कल फ़ोन करूँगी। तुम व तुम्हारी पत्नी का सुनकर दुख हुआ।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> छोड़ो, तुम्हारे जाने से  ये कौन से साथ रहने लगेंगे। nan यह तब तक है जब तक हालात सुधरते नहीं। अधिक से अधिक कुछ दिन।  उसका दिमाग ठिकाने आ जाएगा।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हा। औरतें यही करती हैं। nan मेहमान वाले कमरे में रहो। मैं चादरें लाता हूँ। वह ठीक है। मैं अपनी चादरें लाया हूँ। nan मुझे अपनी चादरें पसंद हैं। nan -ठीक है, फ़िर, गुड नाइट।  -नहीं, रुको। हम मुश्किल से एक-दूसरे से बात करते हैं। nan तुम क्या बात करना चाहते हो? मुझे नहीं पता। सैन फर्नाडो वैली काइरोप्रैक्टिक संघ ने मुझे काइरोप्रैक्टर ऑफ़ द ईयर नामित किया। -ठीक है, फ़िर। गुड नाइट।  -नहीं। अपने बारे में बताओ? nan ख़ैर, कहने को ज़्यादा नहीं है।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मैं थोड़ा सा काम करके काफ़ी पैसे बनाता हूँ। nan सुंदर औरतों साथ सोता हूँ  जिन्हें मेरी भावनाओं से मतलब नहीं। जैगुआर चलाता और बीच पर रहता हूँ, और कभी-कभी दिन के बीच में,  बिना किसी वजह के, अपने लिए मार्गरीटा का बड़ा जग बनाता हूँ, nan nan</t>
   </si>
   <si>
     <t xml:space="preserve"> nan nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> है। गुड नाइट, चार्ली। नाइट। nan nan</t>
+    <t xml:space="preserve"> -ठीक है। गुड नाइट, चार्ली।  -गुड नाइट। nan nan</t>
   </si>
   <si>
     <t xml:space="preserve"> अरे, आपकी आँखें लाल हैं। nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> मेरी आँखों से देखना चाहिए। nan मेरी माँ मुझे लाईं। मुझे समुद्र में तैरने ले चलेंगे? nan मेरा सिरदर्द ख़त्म होने के बाद इस पर बात करें? nan nan ख़ैर, मैंने कल रात थोड़ी ज़्यादा वाइन पी ली।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अगर इससे आपकी तबीयत ख़राब होती है, तो क्यों पीते हैं?</t>
+    <t xml:space="preserve"> मेरी आँखों से देखना चाहिए। nan मेरी माँ मुझे लाईं। मुझे समुद्र में तैरने ले चलेंगे? nan मेरा सिरदर्द ख़त्म होने के बाद  इस पर बात करें? nan nan ख़ैर, मैंने कल रात थोड़ी ज़्यादा वाइन पी ली। अगर इससे आपकी तबीयत ख़राब होती है,  तो क्यों पीते हैं?</t>
   </si>
   <si>
     <t xml:space="preserve"> किसी को चंट गधे पसंद नहीं। nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> आपको एक डॉलर गाली वाले जार में डालना होगा क्योंकि आपने बोला। nan तुम्हें बताता हूँ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> यह लो डॉलर। अब से लेकर लंच के लिए हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अब, मुझे लगता है कि तुम एक सूची बनाओ। एक ओर लिखो, हमारी शादी के बारे में क्या नापसंद है, और दूसरी ओर, तुम्हें जो पसंद है। कभी-कभी जब तुम्हारे पास घर आने का सोचती हूँ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> तो कार में ही रोने लगती हूँ। nan ठीक है, तो यह शायद की ओर रहेगा।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मैं झूठ क्यों बोलूँगा? आज समुद्र बंद है। हे राम, तुम्हें नहीं लगता कि तुम पैंट पहन लो? nan मुझे देखो, जूडी। मुझे पैंट पहनने का समय नहीं मिला। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ, आओ, बच्चे, हम बाहर छत पर नाश्ता करेंगे। लंच करेंगे। लंच का समय नहीं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan nan जूडिथ, मैं बदल सकता हूँ।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> प्लीज़, एलन। मैंने तुमसे ज़्यादा सख़त, कठोर,</t>
+    <t xml:space="preserve"> आपको एक डॉलर गाली वाले जार में  डालना होगा क्योंकि आपने "गधा" बोला। nan तुम्हें बताता हूँ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> यह लो 20 डॉलर।  अब से लेकर लंच के लिए हैं। अब, मुझे लगता है कि तुम एक सूची बनाओ। एक ओर लिखो,  हमारी शादी के बारे में क्या नापसंद है, और दूसरी ओर, तुम्हें जो पसंद है। कभी-कभी जब  तुम्हारे पास घर आने का सोचती हूँ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तो कार में ही रोने लगती हूँ। nan ठीक है, तो यह शायद "न" की ओर रहेगा। मैं झूठ क्यों बोलँगा? आज समुद्र बंद है। है राम, तुम्हें नहीं लगता  कि तुम पैंट पहन लो? nan मुझे देखो, जूडी।  मुझे पैंट पहनने का समय नहीं मिला। nan हाँ, आओ, बच्चे,  हम बाहर छत पर नाश्ता करेंगे। -अच्छा, लंच करेंगे।  -यह लंच का समय नहीं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan nan जूडिथ, मैं बदल सकता हूँ। प्लीज़, एलन। मैंने तुमसे ज़्यादा सख़त, कठोर,</t>
   </si>
   <si>
     <t xml:space="preserve"> सनकी और उग्र इंसान से नहीं मिली। nan nan</t>
@@ -136,67 +100,58 @@
     <t xml:space="preserve"> तुम्हें नहीं लगता कि दोनों एक जैसे हैं?</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan मेरे माँ-बाप अलग हो रहे हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ। यह ऐसा लगता तो है। nan nan तुम्हारी उम्र में अपने माँ-बाप के अलग होने का सपना ही देख सका। nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> दादी माँ कहती हैं आपने बहुत निराश किया। nan सुनो, तुम्हारी माँ अलविदा कहना चाहती हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan सुनो, वह कुछ नहीं जानता जो भी चल रहा है, nan nan हमारा छोटा सा राज़। वह उसे अलविदा क्यों कह रही है? nan वह वेगास में अपनी बहन के साथ सप्ताहांत बिताने जा रही है। तो, हमने तय किया कि जेक मेरे साथ रहेगा। nan nan nan</t>
+    <t xml:space="preserve"> nan मेरे मॉा-बाप अलग हो रहे हैं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हाँ। यह ऐसा लगता तो है। nan nan तुम्हारी उम्र में अपने माँ-बाप  के अलग होने का सपना ही देख सका। nan nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> दादी माँ कहती हैं  आपने बहुत निराश किया। nan सुनो, तुम्हारी माँ अलविदा कहना चाहती हैं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan सुनो, वह कुछ नहीं जानता जो भी चल रहा है, nan nan हमारा छोटा सा राज़।  वह उसे अलविदा क्यों कह रही है? nan वह वेगास में अपनी बहन के साथ  सप्ताहांत बिताने जा रही है। तो, हमने तय किया कि जेक मेरे साथ रहेगा। nan nan nan</t>
   </si>
   <si>
     <t xml:space="preserve"> क्या इससे दिक्कत होगी?</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan nan nan शुक्रिया। सुनो, मुझे दफ़्तर में फ़ोन करना है।</t>
+    <t xml:space="preserve"> nan nan nan शुक्रिया। सुनो,  मुझे दफ़्तर में फ़ोन करना है।</t>
   </si>
   <si>
     <t xml:space="preserve"> इसके लिए लंच बना दोगे? nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> १॥72॥॥ nan तुम क्यों मुस्करा रहे हो? आपके पास कोई खाना नहीं है।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ, पर मुझे भूख नहीं लगी है। nan अब कौन मुस्करा रहा है? nan दूध पीते हो? के साथ। nan यह वाला दूध नहीं, वह वाला दूध। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> फ़र्क पड़ता है? डेयरी फ़ार्म है। हम डेयरी बार्न पीते हैं। nan बढ़िया। nan मैं क्यों खुश होऊँगा? यह बस दूध है। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> होशियार हो। लगे रहो। तुम उनमें से एक कार्टन पर होगे।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan ठीक है, कॉर्नफ्लेक्स।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हमारे पास लकी चार्म्स, कोको पफ़्स, फ्रोस्टेड फ़्लेक्स, मेपल लूप्स। इसमें ओट्स, मक्का और गेहूँ है यह सबसे मीठा नाश्ता है यह मेपल, मेपल, मेप्लीशियस है nan पता है यह गाना किसने लिखा? चार्ली ने लिखा। नहीं?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अगर झूठ बोलना होता तो कहता स्टेयरवे टू हेवन लिखा, nan लोगों की खूब बनती है। nan nan</t>
+    <t xml:space="preserve"> -ज़रूर।  -शुक्रिया। nan तुम क्यों मुस्करा रहे हो? आपके पास कोई खाना नहीं है।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हाँ, पर मुझे भूख नहीं लगी है। nan अब कौन मुस्करा रहा है? nan -तुम दूध पीते हो?  -कॉर्नफ्लेक्स के साथ। nan यह वाला दूध नहीं, वह वाला दूध। nan -क्या फ़र्क पड़ता है?  -यह डेयरी फ़ार्म है। हम डेयरी बार्न पीते हैं। nan बढ़िया। nan मैं क्यों खुश होऊँगा? यह बस दूध है। nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> होशियार होौ। लगे रहो।  तुम उनमें से एक कार्टन पर होगे।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan ठीक है, कॉर्नफ्लेक्स। हमारे पास लकी चार्म्स,  कोको पफ़्स, फ्रोस्टेड फ़्लेक्स, मेपल लूप्स। इसमें ओट्स, मक्का और गेहूँ है यह सबसे मीठा नाश्ता है यह मेपल, मेपल, मेप्लीशियस है nan पता है यह गाना किसने लिखा? -अंकल चार्ली ने लिखा।  -झूठ नहीं?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> अगर झूठ बोलना होता तो कहता  स्टेयरवे ट्‌ हेवन लिखा, nan -तुम लोगों की खूब बनती है।  -शुक्रिया। nan nan</t>
   </si>
   <si>
     <t xml:space="preserve"> नहीं, मैं शादीशुदा नहीं।</t>
   </si>
   <si>
-    <t xml:space="preserve"> डॉ. ब्लूम? हाँ, एलन हार्पर बोल रहा हूँ। मेरी पत्नी मैं दोपहर की हमारी शादी के परामर्श की अपॉइंटमेंट रह्द करना चाहते हैं। nan हाँ, ख़ैर, कुछ काम गया।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ख़ैर, यह थोड़ा निजी है। मेरा मतलब nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ, इन बातों की अहमियत जानता हूँ. nan nan चार्ली घर पर है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> नहीं। मैं चार्ली का भाई हूँ। क्या मदद कर सकता हूँ? हेलो, चार्ली के भाई। मैं रोज़ हूँ। nan nan तुम घर की देखभाल करती हो? घर की देखभाल/अभिनेत्री/ हैंड मॉडल। मैं अपने बिलों के भुगतान के लिए करती हूँ। nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan किसकी खुशबू रही है?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> तुम्हारे भाई की। उसकी महक कस्तूरी की खुशबू जैसी है।</t>
+    <t xml:space="preserve"> nan nan डॉ. ब्लूम? हाँ, एलन हार्पर बोल रहा हूँ। मेरी पत्नी व मैं दोपहर की हमारी शादी के  परामर्श की अपॉइंटमेंट रद्द करना चाहते हैं। nan हाँ, ख़ैर, कुछ काम आ गया।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ख़ेर, यह थोडा निजी है। मेरा मतलब nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हाँ, इन बातों की अहमियत जानता हूँ-- nan nan -हेलो?  -क्या चार्ली घर पर है? नहीं। मैं चार्ली का भाई हूँ।  क्या मदद कर सकता हूँ? हेलो, चार्ली के भाई। मैं रोज़ हूँ। nan nan तुम घर की देखभाल करती हो? घर की देखभाल/अभिनेत्री/ हैंड मॉडल। मैं अपने बिलों के भुगतान के लिए करती हूँ। nan nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan किसकी खुशबू आ रही है?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तुम्हारे भाई की।  उसकी महक कस्तूरी की खुशबू जैसी है।</t>
   </si>
   <si>
     <t xml:space="preserve"> nan nan ख़ैर, तुम अपना काम करो।</t>
@@ -208,73 +163,58 @@
     <t xml:space="preserve"> nan nan यह सबसे मीठा नाश्ता है यह मेपल, मेपल, मेपल nan तुम्हें इतनी देर क्यों लगी?</t>
   </si>
   <si>
-    <t xml:space="preserve"> हम आइसक्रीम के लिए रुके क्योंकि मैं औरतों को आकृष्ट करता हूँ। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मुझे सु-सु जाना है। nan यह क्‍यों मान रहे हो nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan के लिए शुक्रिया। मैंने नहीं की। रोज़ आई थी।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> रोज़? तुमने रोज़ को मेरे घर में आने दिया? nan उसने फ़िर से कैबिनेट को गोंद से चिपका दिया। फ़िर से? कोई ऐसा है जो कैबिनेट को गोंद से चिपकाने आता है? कुछ पागल लोगों से मिले हो जिनके साथ मैं घूमता हूँ।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> सकते हो कि रोज़ कैसी है। यह मेरी गलती है? nan तुम काफ़ी परेशान इंसान हो, पता है? हटो। चलो। मैं काफ़ी परेशान इंसान हूँ? यहाँ कौन आधी रात को अपनी खुद की चादर के साथ आया?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> कम से कम परवाह है कि किस पर सोता हूँ। या कहना चाहिए, किसके साथ सोता हूँ। सुनो, यार, हम दोनों में से, शर्त लगाता हूँ मैं ही हूँ जो हाल में किसी शादीशुदा औरत के साथ सोया। यह कुछ ऐसा नहीं जिस पर डींगें मारी जाएँ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan तुम्हें अंदाज़ा भी है कि यह कितना दर्दनाक है जब अपने खुद के बेटे के तलाक के बारे में सड़क पर सुना हो? क्या तलाक? कौन सी सड़क? nan आप मेरे घर में कैसे आईं? nan मैं तुम्हारे भाई के मुश्किल समय में मदद के लिए आई। मेरे साथ यह कैसे कर सकते हो? क्या किया है? जब मैं अपने पोते को देखना चाहूँगी, तो मुझे जूडिथ से अपॉइंटमेंट लेनी होगी, हमें पता है, वह मुझसे कभी खुश नहीं रही।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> क्या होगा अगर वहाँ कोई दूसरा आदमी हो? उसी घर में अविवाहित?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> क्या हमने उस बारे में भी सोचा है? nan nan मुझे लगता है कि वह अब सोच रहा है, माँ। आइस्ड टी, दादी माँ। नन्हे फ़रिश्ते।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> जानू, नीबू की फाँक माँगी थी।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan अच्छा। अब सुनो तुम क्या करोगे। तुम और जेक मेरे साथ रहने आओगे।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> आखिरकार, इतने बड़े घर में मैं अकेले रहती हूँ। यह बहुत विचारशील है, पर जूडिथ और मैं जल्दी ही सब सुलझा लेंगे, मैं अपने घर वापस चला जाऊँगा।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> जान, बड़े हो जाओ। nan जो कहा उसके बारे में सोचो। तुम मेरे बेटे हो, और मेरे घर में और मेरे दिल में हमेशा तुम्हारे लिए जगह रहेगी।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan लव यू टू, माँ। कम। बहुत देर से।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan वेगास अच्छा था? था।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> है:॥ हर इस स्थिति में डालने के लिए खेद है। अपने दुख के लिए तुमको दोष देना मेरी गलती थी।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ज़रूरी बात यह है कि हम यहाँ हैं और अपनी शादी बचाने की कोशिश कर रहे हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> उस ऑक्सीजन की वजह से होगी जो वे कसीनो में डालते हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मैंने देखा कि अलग होना हम दोनों के लिए बहुत अच्छा रहा। मैं वह परेशान करने वाला आदमी नहीं रहा जिसे तुमने साढ़े चार दिन पहले घर से निकाला। बढ़िया है।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> तुम चिंतित थी कि मेरे भाई के साथ कैसे रहेगा, पर चार्ली की बच्चों से खूब पटती है। ठीक है, अंतिम कार्ड, बेकार और व्यर्थ। nan nan मैं भी। मैं एक डॉलर डालता हूँ और पाँच डॉलर की चाल चलता हूँ। nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> देखना चाहूँगा। भी। nan रानियाँ पूरी नौ। nan</t>
+    <t xml:space="preserve"> हम आइसक्रीम के लिए रुके  क्योंकि मैं औरतों को आकृष्ट करता हूँ। nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मुझे सु-सु जाना है। nan यह क्‍यों मान रहे हो  कि उसने मुझसे सीखा? nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan -सफ़ाई के लिए शुक्रिया।  -नहीं, मैंने नहीं की। रोज़ आई थी। रोज़? तुमने रोज़ को मेरे घर में आने दिया? nan उसने फ़िर से कैबिनेट  को गोंद से चिपका दिया। फ़िर से? कोई ऐसा है जो कैबिनेट को  गोंद से चिपकाने आता है? कुछ पागल लोगों से मिले हो  जिनके साथ मैं घूमता हूँ।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -सोच सकते हो कि रोज़ कैसी है।  -तो, यह मेरी गलती है? nan तुम काफ़ी परेशान इंसान हो,  पता है? हटो। चलो। मैं काफ़ी परेशान इंसान हूँ? यहाँ कौन आधी रात को  अपनी खुद की चादर के साथ आया?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कम से कम परवाह है कि किस पर सोता हूँ।  या कहना चाहिए, किसके साथ सोता हूँ। सुनो, यार, हम दोनों में से, शर्त लगाता हूँ मैं ही हूँ जो हाल में  किसी शादीशुदा औरत के साथ सोया। यह कुछ ऐसा नहीं जिस पर डींगें मारी जाएँ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan तुम्हें अंदाज़ा भी है  कि यह कितना दर्दनाक है जब अपने खुद के बेटे के  तलाक के बारे में सड़क पर सुना हो? क्या तलाक? कौन सी सड़क? nan आप मेरे घर में कैसे आई? nan मैं तुम्हारे भाई के  मुश्किल समय में मदद के लिए आई। मेरे साथ यह कैसे कर सकते हो? क्या किया है? जब मैं अपने पोते को देखना चाहूँगी, तो मुझे जूडिथ से अपॉइंटमेंट लेनी होगी, हमें पता है,  वह मुझसे कभी खुश नहीं रही। क्या होगा अगर वहाँ कोई दूसरा आदमी हो?  उसी घर में अविवाहित?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> क्या हमने उस बारे में भी सोचा है? nan nan मुझे लगता है कि वह अब सोच रहा है, माँ। -आपकी आइस्ड टी, दादी माँ।  -शुक्रिया, नन्हे फ़रिश्ते।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> जानू, नीबू की फाॉँक माँगी थी।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan अच्छा। अब सुनो तुम क्या करोगे। तुम और जेक मेरे साथ रहने आओगे। आखिरकार, इतने बड़े घर में  मैं अकेले रहती हूँ। यह बहुत विचारशील है, पर जूडिथ  और मैं जल्दी ही सब सुलझा लेंगे, मैं अपने घर वापस चला जाऊँगा।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> जान, बडे हो जाओ। nan जो कहा उसके बारे में सोचो। तुम मेरे बेटे हो,  और मेरे घर में और मेरे दिल में हमेशा तुम्हारे लिए जगह रहेगी।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan -आई लव यू टू, माँ।  -बहुत कम। बहुत देर से।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan -तो, वेगास अच्छा था?  -ठीक था।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मुझे वाकई तुम्हें  इस स्थिति में डालने के लिए खेद है। अपने दुख के लिए  तुमको दोष देना मेरी गलती थी।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ज़रूरी बात यह है कि हम यहाँ हैं  और अपनी शादी बचाने की कोशिश कर रहे हैं। उस ऑक्सीजन की वजह से होगी  जो वे कसीनो में डालते हैं। मैंने देखा कि अलग होना  हम दोनों के लिए बहुत अच्छा रहा। मैं वह परेशान करने वाला  आदमी नहीं रहा जिसे तुमने साढ़े चार दिन पहले घर से निकाला। -एलन।  -जेक बढ़िया है।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तुम चिंतित थी  कि मेरे भाई के साथ कैसे रहेगा, पर चार्ली की बच्चों से खूब पटती है। ठीक है, अंतिम कार्ड, बेकार और व्यर्थ। nan nan मैं भी। में एक डॉलर डालता हूँ  और पाँच डॉलर की चाल चलता हूँ। nan nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -कार्ड देखना चाहूँगा।  -मैं भी। nan रानियाँ पूरी नौ। nan</t>
   </si>
   <si>
     <t xml:space="preserve"> हाँ, और दूसरों को बेवकूफ़ बनाना भी आता है।</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan मुझे यह बच्चा पसंद है। nan मेरे ख़याल से हमें इसे हमारी शादी के लिए नई शुरुआत की तरह देखना चाहिए। पुनर्जन्म। एक पुनर्जागरण, अगर तुम चाहो।</t>
+    <t xml:space="preserve"> nan मुझे यह बच्चा पसंद है। nan मेरे ख़याल से हमें इसे हमारी शादी के लिए  नई शुरुआत की तरह देखना चाहिए। पुनर्जन्म। एक पुनर्जागरण, अगर तुम चाहो।</t>
   </si>
   <si>
     <t xml:space="preserve"> लगता है मैं समलैंगिक हूँ।</t>
@@ -283,10 +223,10 @@
     <t xml:space="preserve"> हम एक सूची बनाएँगे। nan एक तरफ़, हम समलैंगिकता से जुड़ी बातें मैं तुम्हें देखूँगा</t>
   </si>
   <si>
-    <t xml:space="preserve"> और डॉलर की चाल चलूँगा।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan लगता है उसने फँसा लिया। झाँसा दे रहा है।</t>
+    <t xml:space="preserve"> और 20 डॉलर की चाल चलूगा।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan -मुझे लगता है उसने फँसा लिया।  -वह झाँसा दे रहा है।</t>
   </si>
   <si>
     <t xml:space="preserve"> जब झाँसा देता है तो कान खींचता है। nan</t>
@@ -295,74 +235,56 @@
     <t xml:space="preserve"> इसका क्या, माइटी माउस? खेल रहे हो? nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan nan धत्‌, यहाँ क्या चल रहा है? आपने कहा। एक डॉलर जार में डालो। क्या? nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> चार्ली, तुमसे अकेले में बात कर सकता हूँ? nan बाँटेगा? सोने जाओ!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan तुम्हें सही-गलत की ज़रा भी समझ है? शायद नहीं। डिनर कैसा था? तुमने बड़ों के साथ जेक को पोकर क्यों खिलाया? बेशक मेरा भरोसा नहीं किया जा सकता। nan तो, डिनर कैसा था? कुछ घंटों के लिए तुम्हें उसके साथ अकेले छोड़ता हूँ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> डिनर बढ़िया था। हमने वील पिकाटा खाई और वह समलैंगिक है! nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अधिकांश औरतें वील नहीं खातीं। nan तुमसे बात करने की कोशिश भी क्‍यों करता हूँ? छोड़ो भी, मैं तुम्हें हल्का करने की कोशिश कर रहा हूँ। मुझे हल्का होने की ज़रूरत नहीं। मेरी दुनिया में अंधेरा है। अंधेरा और बरसाती। और तुम इसमें बेकार हो! सच में? मैं उस समय बेकार नहीं था जब तुम्हें रहने के लिए जगह चाहिए थी। बेशक, वह एक गलती थी। तुम्हें पूरा यकीन है?</t>
+    <t xml:space="preserve"> nan nan धत्‌, यहाँ क्या चल रहा है? आपने "धत्‌" कहा। एक डॉलर जार में डालो। क्या? nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> चार्ली, तुमसे अकेले में बात कर सकता हूँ? nan -कौन बाँटेगा?  -जेक, सोने जाओ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan तुम्हें सही-गलत की ज़रा भी समझ है? शायद नहीं। डिनर कैसा था? तुमने बड़ों के साथ  जेक को पोकर क्यों खिलाया? बेशक मेरा भरोसा नहीं किया जा सकता। nan तो, डिनर कैसा था? कुछ घंटों के लिए  तुम्हें उसके साथ अकेले छोड़ता हूँ-- डिनर बढ़िया था। हमने  वील पिकाटा खाई और वह समलैंगिक है! nan nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> अधिकांश औरतें वील नहीं खातीं। nan तुमसे बात करने की  कोशिश भी क्‍यों करता हूँ? छोड़ो भी, मैं तुम्हें  हल्का करने की कोशिश कर रहा हूँ। मुझे हल्का होने की ज़रूरत नहीं  मेरी दुनिया में अंधेरा है। अंधेरा और बरसाती। और तुम इसमें बेकार हो! सच में? मैं उस समय बेकार नहीं था  जब तुम्हें रहने के लिए जगह चाहिए थी। बेशक, वह एक गलती थी। nan</t>
   </si>
   <si>
     <t xml:space="preserve"> शायद हमें एक सूची बनानी चाहिए। nan</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan nan क्या हो रहा है? नींद नहीं आई? नहीं। मेरे डैड ने कहा हम कल दादी माँ के घर जा रहे हैं।</t>
+    <t xml:space="preserve"> nan nan क्या हो रहा है? नींद नहीं आई? nan मेरे डैड ने कहा  हम कल दादी माँ के घर जा रहे हैं।</t>
   </si>
   <si>
     <t xml:space="preserve"> हाँ, इसी ने मुझे भी जगाए रखा।</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan nan अगर इससे कुछ बेहतर महसूस हो तो तुम आखिरी बाज़ी में डॉलर जीते। पचासी डॉलर। nan काश मेरे डैड आप जैसे मस्त होते। nan वह दुनिया में तुम्हें सबसे बढ़कर प्यार करते हैं।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> तुम यह जानते हो, है</t>
+    <t xml:space="preserve"> nan nan अगर इससे कुछ बेहतर महसूस हो  तो तुम आखिरी बाज़ी में 80 डॉलर जीते। पचासी डॉलर। nan काश मेरे डैड आप जैसे मस्त होते। nan वह दुनिया में तुम्हें  सबसे बढ़कर प्यार करते हैं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तुम यह जानते हो, है न?</t>
   </si>
   <si>
     <t xml:space="preserve"> nan nan आपके कोई बच्चा क्‍यों नहीं है? nan मुझे नहीं पता।</t>
   </si>
   <si>
-    <t xml:space="preserve"> शायद मैं इस दुनिया में सबसे अधिक खुद से प्यार करता हूँ। nan चार्ली? जल,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मुझे दादी माँ के घर नहीं जाना। यहाँ रहना है। nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> हाँ, तुम्हारे डैड जानते हैं कि तुम्हारे लिए क्‍या सही है।</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ठीक है। गुड नाइट, अंकल चार्ली। nan nan</t>
+    <t xml:space="preserve"> शायद मैं इस दुनिया में  सबसे अधिक खुद से प्यार करता हूँ। nan -अंकल  चार्ली?  -हॉा? द</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मुझे दादी माँ के घर नहीं जाना। यहाँ रहना है। nan हाँ, तुम्हारे डैड जानते हैं  कि तुम्हारे लिए क्‍या सही है। ठीक है। गुड नाइट, अंकल चार्ली। nan nan</t>
   </si>
   <si>
     <t xml:space="preserve"> ठीक है।</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan nan nan उस जैसे बच्चे से प्यार हो जाता है। उसके लिए स्टेयरवे टू हेवन भी बजाया, और फिर भी उसे मेपल लूप्स गाना अधिक पसंद आया। मैं तुमसे दो हफ़्ते से नहीं मिली हूँ। तुम्हें अपना घर वापस मिल गया। तुम्हें अपने भतीजे के बारे में बात करनी है, या सेक्स करना है? nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan nan है: कुछ पूछना ही त्ि nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> वाह, हमारी बढ़िया जम रही है। क्या हम इसी तक रहने दें? तुम क्या कर रही हो? मुझे लगा हम सेक्स करने वाले थे। मैं कैसे सेक्स करूँ: जबकि तुम बच्चे पैदा करने के बारे में सोच रहे हो? nan nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> नलिउ। कि है: है 4है+॥| बीप की आवाज़ सुनते ही अपनी बात कहें। हेलो, मंकी मैन। nan मैं तुम्हारे बारे में सोच रही थी, और जानना था कि हम एक-दूसरे को इतना दुख क्यों देते हैं। रोज़, मैं बोल रहा हूँ, मंकी मैन। nan सुनो, तुमसे एक सवाल पूछना है। किसी औरत से यह पूछना स्वाभाविक तौर पर गलत है</t>
+    <t xml:space="preserve"> nan nan nan उस जैसे बच्चे से प्यार हो जाता है। उसके लिए स्टेयरवे टू हेवन भी बजाया, और फिर भी उसे  मेपल लूप्स गाना अधिक पसंद आया। मैं तुमसे दो हफ़्ते से नहीं मिली हूँ। तुम्हें अपना घर वापस मिल गया। तुम्हें अपने भतीजे के बारे में  बात करनी है, या सेक्स करना है? nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan nan -तुमसे  कुछ [छना  हर है। nan वाह, हमारी बढ़िया जम रही है।  क्या हम इसी तक न रहने दें? तुम क्या कर रही हो?  मुझे लगा हम सेक्स करने वाले थे। मैं कैसे सेक्‍स करूँ जबकि तुम  बच्चे पैदा करने के बारे में सोच रहे हो? nan nan हेलो, चार्ली बोल रहा हूँ।  बीप की आवाज़ सुनते ही अपनी बात कहें। हेलो, मंकी मैन। nan मैं तुम्हारे बारे में सोच रही थी, और जानना था कि हम एक-दूसरे को  इतना दुख क्‍यों देते हैं। रोज़, मैं बोल रहा हूँ, मंकी मैन। nan -चार्ली?  -हाँ, सुनो, तुमसे एक सवाल पूछना है। किसी औरत से यह पूछना  स्वाभाविक तौर पर गलत है</t>
   </si>
   <si>
     <t>english</t>
   </si>
   <si>
     <t xml:space="preserve"> So, what do you think? Wow. It's for you, right? It's for both of us. Don't go away. Don't worry. There's no enough blood
-left in my legs to go anywhere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (&lt;i&gt; phone ringing&lt;/i&gt; )</t>
+left in my legs to go anywhere. (&lt;i&gt; phone ringing&lt;/i&gt; )</t>
   </si>
   <si>
     <t xml:space="preserve"> CHARLIE (&lt;i&gt; on machine&lt;/i&gt; ):
@@ -372,10 +294,7 @@
     <t xml:space="preserve"> Do your thing
 when you hear the beep. (&lt;i&gt; beeps&lt;/i&gt; ) WOMAN:
 Listen, you lousy SOB. I will not be treated like this. Either you call me or you are
-going to be very, very sorry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I love you, Monkey Man. Charlie?</t>
+going to be very, very sorry. I love you, Monkey Man. Charlie?</t>
   </si>
   <si>
     <t xml:space="preserve"> Who is that? Damn telemarketers. A telemarketer
@@ -383,10 +302,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Okay, it's a woman
-I went out with once, and she got a little clingy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You are a bad, bad boy. And yet, you're always
+I went out with once, and she got a little clingy. You are a bad, bad boy. And yet, you're always
 the one getting spanked.</t>
   </si>
   <si>
@@ -394,13 +310,7 @@
 Hey, it's Charlie. Do your thing
 when you hear the beep. (&lt;i&gt; beeps&lt;/i&gt; ) MAN:
 Uh, Charlie, it-it's Alan, uh, your brother. No big deal. Uh, just wanted to touch base. My-my wife threw me out and I'm kind of losing
-the will to live.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, when you get a chance,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'd really love to,
+the will to live. So, when you get a chance, I'd really love to,
 oh, I don't know... Hey, Alan,
 I'm sorry to hear about that. Uh, so, where are you
 going to go, to a hotel? Wow. Huh? Well, yeah, I-I guess
@@ -423,19 +333,10 @@
     <t xml:space="preserve"> How did you get in my house? Okay, Charlie, the key
 in the fake rock only works if it's among other rocks. Not-not sitting on
 your welcome mat. Excuse me, but if you put the fake rock
-in with a bunch of other rocks,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it's impossible to find
+in with a bunch of other rocks, it's impossible to find
 when you're drunk. You know, I'm
 a good husband. I-I'm faithful. Is she? Is she what? Faithful. (&lt;i&gt; scoffing&lt;/i&gt; ) Don't be ridiculous. I mean,
-Judith doesn't even like sex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I mean, all she kept saying</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> was she feels suffocated,
+Judith doesn't even like sex. I mean, all she kept saying was she feels suffocated,
 you know. She kept going on and on, "I'm suffocating.
 I'm suffocating." What does that mean? Has a women ever said that
 to you? Well, yeah... but not a woman who
@@ -454,10 +355,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Look, okay, this is just
-until things settle out. A couple of days max. She will come to her senses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, that's what women do.</t>
+until things settle out. A couple of days max. She will come to her senses. Yeah, that's what women do.</t>
   </si>
   <si>
     <t xml:space="preserve"> Look,
@@ -500,10 +398,7 @@
 Can we talk about it
 after my head stops exploding? Why is your head exploding? Well, I drank a little
 too much wine last night. If it makes you feel bad,
-why do you drink it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nobody likes
+why do you drink it? Nobody likes
 a wiseass, Jake.</t>
   </si>
   <si>
@@ -517,10 +412,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Now, what I think
-you need to do is to make a list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On one side, put
+you need to do is to make a list. On one side, put
 what you don't like
 about our marriage, and on the other
 side, what you do. Alan, sometimes when I think
@@ -528,27 +420,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Okay, that would probably
-go on the "don't" side. Why would I lie? The ocean is closed today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For God's sake, Charlie, do you think you could put
+go on the "don't" side. Why would I lie? The ocean is closed today. For God's sake, Charlie, do you think you could put
 some pants on? Look at me, Judy. I could barely make it
 down the stairs. Uh, Charlie, could
 you and Jake, uh... Yeah. Come on, kid. We'll have breakfast
-out on the deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I already had breakfast.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, we'll have lunch. Not lunchtime. (&lt;i&gt; imitates explosion&lt;/i&gt; )</t>
+out on the deck. I already had breakfast. Okay, we'll have lunch. Not lunchtime. (&lt;i&gt; imitates explosion&lt;/i&gt; )</t>
   </si>
   <si>
     <t xml:space="preserve"> That's his head exploding. Judith, I-I can change. Oh, please, Alan. You are the most rigid,
-inflexible, obsessive,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anal-retentive man
+inflexible, obsessive, anal-retentive man
 I've ever met.</t>
   </si>
   <si>
@@ -591,22 +471,13 @@
   </si>
   <si>
     <t xml:space="preserve"> Who's smiling now, shorty? CHARLIE:
-You drink milk? Just with cereal. Okay. Not that milk. That milk. What's the difference? That's DairyFarm. We drink DairyBarn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fine. Happy? Why would I be happy? It's just milk. Cute. Keep it up,
+You drink milk? Just with cereal. Okay. Not that milk. That milk. What's the difference? That's DairyFarm. We drink DairyBarn. Fine. Happy? Why would I be happy? It's just milk. Cute. Keep it up,
 you'll be on one of the cartons.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, cereal. We got Lucky Charms,
 Cocoa Puffs, Frosted Flakes,
-Maple Loops...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want Maple Loops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> âª It's got oats and corns
+Maple Loops... I want Maple Loops. âª It's got oats and corns
 and wheat âª âª It's the sweetest
 breakfast treat âª BOTH:
 âª It's maple, maple,
@@ -622,13 +493,7 @@
 than a dog.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dr. Bloom. Yes, yes. This is, uh, Alan Harper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes. My wife and I need</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to cancel our marriage
+    <t xml:space="preserve"> Dr. Bloom. Yes, yes. This is, uh, Alan Harper. Yes. My wife and I need to cancel our marriage
 counseling appointment for this afternoon. Yes, well, well,
 something came up. Well, it's-it's-it's
 kind of personal. I mean, I-I-I...</t>
@@ -640,10 +505,7 @@
   <si>
     <t xml:space="preserve"> I've got to go. Um, hello? Is Charlie home? Uh, uh, no. I'm, uh,
 I'm Charlie's brother. Can I, uh, can
-I help you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh, hi, Charlie's brother. I'm Rose. I'm Charlie's housekeeper. So you're-you're
+I help you? Oh, hi, Charlie's brother. I'm Rose. I'm Charlie's housekeeper. So you're-you're
 a housekeeper? Well, housekeeper, slash,
 actress, slash, hand model. (&lt;i&gt; laughs&lt;/i&gt; ) I just do this
 to keep the wolf from the door. (&lt;i&gt; roars&lt;/i&gt; ) (&lt;i&gt; laughs&lt;/i&gt; ) You know what I mean? Sure. Sure, come on in. Uh...</t>
@@ -680,10 +542,7 @@
 he learned that from me? Because&lt;i&gt; I&lt;/i&gt; learned it from you.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hey, thanks for cleaning up. Oh, it wasn't me. Rose was here. Rose? You let Rose into my house? She said she was your maid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What the hell. She glued the damned cabinets
+    <t xml:space="preserve"> Hey, thanks for cleaning up. Oh, it wasn't me. Rose was here. Rose? You let Rose into my house? She said she was your maid. What the hell. She glued the damned cabinets
 shut again. Again? You've got somebody who comes in regularly
 to glue your cabinets? Oh, you've met some
 of the whack jobs I've gone out with. It's not that big a stretch. Oh, oh. So this is my fault.</t>
@@ -714,10 +573,7 @@
 to see my grandson, I am going to have
 to make an appointment with Judith, who-- let's face it--
 was never very warm to me. And what if
-there's another man there, shacking up with her?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Have you even stopped
+there's another man there, shacking up with her? Have you even stopped
 to consider that?</t>
   </si>
   <si>
@@ -731,10 +587,7 @@
     <t xml:space="preserve"> All right, here's what
 you're going to do. You and Jake will come live
 with me. After all, I'm just rattling around
-in that big house all by myself. Mom, that's very considerate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> but as soon
+in that big house all by myself. Mom, that's very considerate, but as soon
 as Judith and I work things out, I'm going to be back
 at my own house. Oh, sweetheart, grow up.</t>
   </si>
@@ -753,30 +606,18 @@
   </si>
   <si>
     <t xml:space="preserve"> I was wrong to blame you
-for my unhappiness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No. No need
+for my unhappiness. No. No need
 to apologize. What's important is
 that we're here, and we're working
 on our marriage.</t>
   </si>
   <si>
     <t xml:space="preserve"> You look great,
-by the way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Must be all the extra oxygen they pump
+by the way. Must be all the extra oxygen they pump
 into the casinos. Alan...
 And-and-and-and
-you were right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-I see now that the time apart
-did us both a lot of good. I know I've grown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I am not that suffocating guy you threw out of the house
+you were right. I-I see now that the time apart
+did us both a lot of good. I know I've grown. I am not that suffocating guy you threw out of the house
 four and half days ago. Let me tell you that. Alan...
 And Jake's doing fine. I know you were concerned about him
 being around my brother, but it turns out
@@ -843,10 +684,7 @@
 alone with him for a couple of hours.
 I mean, it's just... I'm just going
 to keep asking, Alan. Dinner was swell. We both had the veal piccata,
-and she's gay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wow. Most chicks won't eat veal.</t>
+and she's gay. Wow. Most chicks won't eat veal.</t>
   </si>
   <si>
     <t xml:space="preserve"> Why do I even try
@@ -888,16 +726,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Yeah, well, your dad knows
-what's best for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay. Good night, Uncle Charlie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I love you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah. Okay.</t>
+what's best for you. Okay. Good night, Uncle Charlie. I love you. Yeah. Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> (&lt;i&gt; kissing&lt;/i&gt; ) You got to love
@@ -911,22 +740,10 @@
     <t xml:space="preserve"> Let me ask you
 something. Yeah? Do you ever think
 about having kids? Whoa, Charlie,
-we got a good thing going. Can't we just leave it at that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What are you doing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I thought we were going
+we got a good thing going. Can't we just leave it at that? What are you doing? I thought we were going
 to have sex. How am I supposed to have sex while your biological clock
 is going off? (&lt;i&gt; phone rings&lt;/i&gt; ) Hey, it's Charlie. Do your thing
-when you hear the beep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (&lt;i&gt; beep&lt;/i&gt; )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ROSE:
+when you hear the beep. (&lt;i&gt; beep&lt;/i&gt; ) ROSE:
 Hi, Monkey Man. I was just thinking
 about you and wondering
 why we hurt each other so much. Rose, it's me, Monkey Man. Charlie? Yeah. Hey, listen,
@@ -1517,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1562,13 +1379,13 @@
         <v>1.418</v>
       </c>
       <c r="C3">
-        <v>15.599</v>
+        <v>18.881</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1576,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.641</v>
+        <v>18.882</v>
       </c>
       <c r="C4">
-        <v>18.881</v>
+        <v>21.191</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1593,16 +1410,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.882</v>
+        <v>21.192</v>
       </c>
       <c r="C5">
-        <v>21.191</v>
+        <v>35.051</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1610,16 +1427,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.192</v>
+        <v>35.052</v>
       </c>
       <c r="C6">
-        <v>30.99</v>
+        <v>46.64100000000001</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1627,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.031</v>
+        <v>46.642</v>
       </c>
       <c r="C7">
-        <v>35.051</v>
+        <v>58.218</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1644,16 +1461,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.052</v>
+        <v>58.219</v>
       </c>
       <c r="C8">
-        <v>46.64100000000001</v>
+        <v>99.84099999999999</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1661,16 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46.642</v>
+        <v>99.842</v>
       </c>
       <c r="C9">
-        <v>52.093</v>
+        <v>102.161</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1678,16 +1492,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52.135</v>
+        <v>102.162</v>
       </c>
       <c r="C10">
-        <v>58.218</v>
+        <v>104.494</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1695,16 +1506,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>58.219</v>
+        <v>104.495</v>
       </c>
       <c r="C11">
-        <v>77.077</v>
+        <v>111.447</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1712,13 +1523,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77.11799999999999</v>
+        <v>111.448</v>
       </c>
       <c r="C12">
-        <v>78.66200000000001</v>
+        <v>125.383</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1726,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78.70399999999999</v>
+        <v>125.384</v>
       </c>
       <c r="C13">
-        <v>99.84099999999999</v>
+        <v>173.974</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1743,13 +1557,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99.842</v>
+        <v>173.975</v>
       </c>
       <c r="C14">
-        <v>102.161</v>
+        <v>197.092</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1757,13 +1574,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102.162</v>
+        <v>197.093</v>
       </c>
       <c r="C15">
-        <v>104.494</v>
+        <v>208.676</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1771,16 +1591,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>104.495</v>
+        <v>208.677</v>
       </c>
       <c r="C16">
-        <v>111.447</v>
+        <v>250.581</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1788,16 +1608,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>111.448</v>
+        <v>250.582</v>
       </c>
       <c r="C17">
-        <v>125.383</v>
+        <v>269.061</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1805,16 +1625,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>127.127</v>
+        <v>269.062</v>
       </c>
       <c r="C18">
-        <v>143.351</v>
+        <v>273.7</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1822,16 +1642,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>143.393</v>
+        <v>273.701</v>
       </c>
       <c r="C19">
-        <v>158.033</v>
+        <v>280.641</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1839,13 +1659,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>158.075</v>
+        <v>280.642</v>
       </c>
       <c r="C20">
-        <v>159.367</v>
-      </c>
-      <c r="E20" t="s">
-        <v>129</v>
+        <v>282.962</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1853,16 +1673,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>159.409</v>
+        <v>282.963</v>
       </c>
       <c r="C21">
-        <v>173.974</v>
+        <v>285.302</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1870,16 +1687,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>173.975</v>
+        <v>285.303</v>
       </c>
       <c r="C22">
-        <v>197.092</v>
+        <v>287.608</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1887,16 +1701,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>197.093</v>
+        <v>287.609</v>
       </c>
       <c r="C23">
-        <v>204.621</v>
+        <v>292.272</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1904,16 +1718,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>204.663</v>
+        <v>292.273</v>
       </c>
       <c r="C24">
-        <v>208.676</v>
+        <v>297.048</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1921,16 +1735,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>208.677</v>
+        <v>297.049</v>
       </c>
       <c r="C25">
-        <v>250.581</v>
+        <v>322.531</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1938,16 +1752,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>250.582</v>
+        <v>322.532</v>
       </c>
       <c r="C26">
-        <v>269.061</v>
+        <v>327.171</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1955,16 +1769,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>269.062</v>
+        <v>327.172</v>
       </c>
       <c r="C27">
-        <v>273.7</v>
+        <v>334.081</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1972,16 +1786,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>273.701</v>
+        <v>334.082</v>
       </c>
       <c r="C28">
-        <v>280.641</v>
+        <v>347.951</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1989,13 +1803,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>280.642</v>
+        <v>347.952</v>
       </c>
       <c r="C29">
-        <v>282.962</v>
+        <v>375.701</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2003,13 +1820,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>282.963</v>
+        <v>375.702</v>
       </c>
       <c r="C30">
-        <v>285.302</v>
+        <v>389.843</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2017,13 +1837,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>285.303</v>
+        <v>389.844</v>
       </c>
       <c r="C31">
-        <v>287.608</v>
+        <v>396.8200000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2031,16 +1854,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>287.609</v>
+        <v>396.821</v>
       </c>
       <c r="C32">
-        <v>292.272</v>
+        <v>398.887</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2048,16 +1868,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>292.273</v>
+        <v>398.888</v>
       </c>
       <c r="C33">
-        <v>297.048</v>
+        <v>401.211</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2065,16 +1882,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>297.049</v>
+        <v>401.212</v>
       </c>
       <c r="C34">
-        <v>318.11</v>
+        <v>403.511</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2082,16 +1896,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>319.402</v>
+        <v>403.512</v>
       </c>
       <c r="C35">
-        <v>322.531</v>
+        <v>405.849</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2099,16 +1910,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>322.532</v>
+        <v>405.85</v>
       </c>
       <c r="C36">
-        <v>327.171</v>
+        <v>408.161</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2116,16 +1924,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>327.172</v>
+        <v>408.162</v>
       </c>
       <c r="C37">
-        <v>334.081</v>
+        <v>412.783</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2133,16 +1941,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>334.082</v>
+        <v>412.784</v>
       </c>
       <c r="C38">
-        <v>337.462</v>
+        <v>426.881</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2150,16 +1958,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>337.504</v>
+        <v>426.882</v>
       </c>
       <c r="C39">
-        <v>347.951</v>
+        <v>433.819</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2167,16 +1975,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>347.952</v>
+        <v>433.82</v>
       </c>
       <c r="C40">
-        <v>356.815</v>
+        <v>461.682</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2184,16 +1992,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>356.857</v>
+        <v>461.683</v>
       </c>
       <c r="C41">
-        <v>369.286</v>
+        <v>463.9930000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2201,13 +2006,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>369.328</v>
+        <v>463.994</v>
       </c>
       <c r="C42">
-        <v>370.662</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
+        <v>466.301</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2215,16 +2020,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>370.704</v>
+        <v>466.302</v>
       </c>
       <c r="C43">
-        <v>375.701</v>
+        <v>475.572</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2232,16 +2037,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>375.702</v>
+        <v>475.573</v>
       </c>
       <c r="C44">
-        <v>387.054</v>
+        <v>480.211</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2249,16 +2054,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>387.095</v>
+        <v>480.212</v>
       </c>
       <c r="C45">
-        <v>389.843</v>
+        <v>489.451</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2266,16 +2071,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>389.844</v>
+        <v>489.452</v>
       </c>
       <c r="C46">
-        <v>396.8200000000001</v>
+        <v>524.211</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2283,13 +2088,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>396.821</v>
+        <v>524.212</v>
       </c>
       <c r="C47">
-        <v>398.887</v>
+        <v>526.522</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2297,13 +2102,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>398.888</v>
+        <v>526.523</v>
       </c>
       <c r="C48">
-        <v>401.211</v>
+        <v>552.2230000000001</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2311,13 +2119,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>401.212</v>
+        <v>552.224</v>
       </c>
       <c r="C49">
-        <v>403.511</v>
+        <v>563.822</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2325,13 +2136,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>403.512</v>
+        <v>563.823</v>
       </c>
       <c r="C50">
-        <v>405.849</v>
+        <v>566.111</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2339,13 +2150,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>405.85</v>
+        <v>566.112</v>
       </c>
       <c r="C51">
-        <v>408.161</v>
+        <v>573.0410000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2353,16 +2167,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>408.162</v>
+        <v>573.042</v>
       </c>
       <c r="C52">
-        <v>412.783</v>
+        <v>589.2910000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2370,16 +2184,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>412.784</v>
+        <v>589.292</v>
       </c>
       <c r="C53">
-        <v>426.881</v>
+        <v>593.6610000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2387,16 +2201,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>426.882</v>
+        <v>593.662</v>
       </c>
       <c r="C54">
-        <v>433.819</v>
+        <v>626.2950000000001</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2404,16 +2218,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>433.82</v>
+        <v>626.296</v>
       </c>
       <c r="C55">
-        <v>461.682</v>
+        <v>628.597</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2421,13 +2232,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>461.683</v>
+        <v>628.598</v>
       </c>
       <c r="C56">
-        <v>463.9930000000001</v>
+        <v>633.1990000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2435,13 +2249,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>463.994</v>
+        <v>633.2</v>
       </c>
       <c r="C57">
-        <v>466.301</v>
+        <v>640.134</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2449,16 +2266,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>466.302</v>
+        <v>640.135</v>
       </c>
       <c r="C58">
-        <v>475.572</v>
+        <v>642.193</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
-      </c>
-      <c r="E58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2466,16 +2280,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>475.573</v>
+        <v>642.194</v>
       </c>
       <c r="C59">
-        <v>480.211</v>
+        <v>644.511</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2483,16 +2297,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>480.212</v>
+        <v>644.5119999999999</v>
       </c>
       <c r="C60">
-        <v>489.451</v>
+        <v>651.678</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2500,16 +2314,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>489.452</v>
+        <v>651.679</v>
       </c>
       <c r="C61">
-        <v>509.843</v>
+        <v>656.293</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2517,16 +2331,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>510.293</v>
+        <v>656.294</v>
       </c>
       <c r="C62">
-        <v>524.211</v>
+        <v>658.3770000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2534,13 +2345,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>524.212</v>
+        <v>658.378</v>
       </c>
       <c r="C63">
-        <v>526.522</v>
+        <v>672.5</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2548,16 +2362,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>526.523</v>
+        <v>672.501</v>
       </c>
       <c r="C64">
-        <v>533.616</v>
+        <v>676.871</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2565,13 +2379,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>533.658</v>
+        <v>676.872</v>
       </c>
       <c r="C65">
-        <v>535.16</v>
+        <v>686.351</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2579,16 +2396,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>535.202</v>
+        <v>686.352</v>
       </c>
       <c r="C66">
-        <v>552.2230000000001</v>
+        <v>709.441</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2596,16 +2413,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>552.224</v>
+        <v>709.442</v>
       </c>
       <c r="C67">
-        <v>563.822</v>
+        <v>721.048</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2613,13 +2430,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>563.823</v>
+        <v>721.049</v>
       </c>
       <c r="C68">
-        <v>566.111</v>
+        <v>732.615</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2627,16 +2447,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>566.112</v>
+        <v>732.616</v>
       </c>
       <c r="C69">
-        <v>573.0410000000001</v>
+        <v>737.239</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2644,16 +2464,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>573.042</v>
+        <v>737.24</v>
       </c>
       <c r="C70">
-        <v>577.869</v>
+        <v>774.2860000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2661,13 +2481,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>577.9109999999999</v>
+        <v>774.287</v>
       </c>
       <c r="C71">
-        <v>579.413</v>
+        <v>785.731</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2675,16 +2498,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>579.454</v>
+        <v>785.732</v>
       </c>
       <c r="C72">
-        <v>589.2910000000001</v>
+        <v>788.0410000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2692,16 +2512,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>589.292</v>
+        <v>788.042</v>
       </c>
       <c r="C73">
-        <v>593.6610000000001</v>
+        <v>806.322</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2709,16 +2529,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>593.662</v>
+        <v>806.323</v>
       </c>
       <c r="C74">
-        <v>604.02</v>
+        <v>817.8910000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2726,16 +2546,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>604.062</v>
+        <v>817.8920000000001</v>
       </c>
       <c r="C75">
-        <v>626.2950000000001</v>
+        <v>820.205</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2743,13 +2560,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>626.296</v>
+        <v>820.206</v>
       </c>
       <c r="C76">
-        <v>628.597</v>
+        <v>822.552</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2757,16 +2574,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>628.598</v>
+        <v>822.553</v>
       </c>
       <c r="C77">
-        <v>633.1990000000001</v>
+        <v>824.87</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2774,16 +2588,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>633.2</v>
+        <v>824.871</v>
       </c>
       <c r="C78">
-        <v>640.134</v>
+        <v>827.183</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2791,13 +2602,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>640.135</v>
+        <v>827.184</v>
       </c>
       <c r="C79">
-        <v>642.193</v>
+        <v>833.859</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2805,16 +2619,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>642.194</v>
+        <v>833.86</v>
       </c>
       <c r="C80">
-        <v>644.511</v>
+        <v>840.792</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2822,16 +2636,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>644.5119999999999</v>
+        <v>840.793</v>
       </c>
       <c r="C81">
-        <v>651.678</v>
+        <v>847.712</v>
       </c>
       <c r="D81" t="s">
         <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2839,16 +2653,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>651.679</v>
+        <v>847.713</v>
       </c>
       <c r="C82">
-        <v>656.293</v>
+        <v>868.3140000000001</v>
       </c>
       <c r="D82" t="s">
         <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2856,13 +2670,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>656.294</v>
+        <v>868.3150000000001</v>
       </c>
       <c r="C83">
-        <v>658.3770000000001</v>
+        <v>888.85</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2870,16 +2687,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>658.378</v>
+        <v>888.851</v>
       </c>
       <c r="C84">
-        <v>672.5</v>
+        <v>898.092</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2887,16 +2704,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>672.501</v>
+        <v>898.093</v>
       </c>
       <c r="C85">
-        <v>676.871</v>
+        <v>900.409</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2904,16 +2721,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>676.872</v>
+        <v>900.41</v>
       </c>
       <c r="C86">
-        <v>686.351</v>
+        <v>911.681</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2921,16 +2738,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>686.352</v>
+        <v>911.682</v>
       </c>
       <c r="C87">
-        <v>694.693</v>
+        <v>913.982</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2938,16 +2752,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>694.735</v>
+        <v>913.9829999999999</v>
       </c>
       <c r="C88">
-        <v>709.441</v>
+        <v>916.293</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2955,16 +2769,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>709.442</v>
+        <v>916.294</v>
       </c>
       <c r="C89">
-        <v>721.048</v>
+        <v>920.909</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2972,16 +2786,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>722.472</v>
+        <v>920.91</v>
       </c>
       <c r="C90">
-        <v>732.615</v>
+        <v>930.131</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2989,16 +2803,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>732.616</v>
+        <v>930.1319999999999</v>
       </c>
       <c r="C91">
-        <v>737.239</v>
+        <v>932.467</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3006,16 +2817,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>737.24</v>
+        <v>932.468</v>
       </c>
       <c r="C92">
-        <v>770.144</v>
+        <v>939.402</v>
       </c>
       <c r="D92" t="s">
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3023,16 +2834,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>770.186</v>
+        <v>939.403</v>
       </c>
       <c r="C93">
-        <v>774.2860000000001</v>
+        <v>944.027</v>
       </c>
       <c r="D93" t="s">
         <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3040,16 +2851,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>774.287</v>
+        <v>944.028</v>
       </c>
       <c r="C94">
-        <v>785.731</v>
+        <v>948.398</v>
       </c>
       <c r="D94" t="s">
         <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3057,13 +2868,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>785.732</v>
+        <v>948.399</v>
       </c>
       <c r="C95">
-        <v>788.0410000000001</v>
+        <v>953.022</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3071,16 +2885,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>788.042</v>
+        <v>953.023</v>
       </c>
       <c r="C96">
-        <v>798.506</v>
+        <v>955.342</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3088,16 +2902,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>798.548</v>
+        <v>955.343</v>
       </c>
       <c r="C97">
-        <v>806.322</v>
+        <v>971.2810000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3105,16 +2919,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>806.323</v>
+        <v>971.282</v>
       </c>
       <c r="C98">
-        <v>817.8910000000001</v>
+        <v>978.224</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3122,13 +2936,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>817.8920000000001</v>
+        <v>978.225</v>
       </c>
       <c r="C99">
-        <v>820.205</v>
+        <v>1005.962</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3136,13 +2953,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>820.206</v>
+        <v>1005.963</v>
       </c>
       <c r="C100">
-        <v>822.552</v>
+        <v>1028.801</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="E100" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3150,13 +2970,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>822.553</v>
+        <v>1028.802</v>
       </c>
       <c r="C101">
-        <v>824.87</v>
+        <v>1033.461</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="E101" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3164,13 +2987,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>824.871</v>
+        <v>1033.462</v>
       </c>
       <c r="C102">
-        <v>827.183</v>
+        <v>1035.564</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3178,16 +3001,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>827.184</v>
+        <v>1035.565</v>
       </c>
       <c r="C103">
-        <v>833.859</v>
+        <v>1037.89</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3195,16 +3015,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>833.86</v>
+        <v>1037.891</v>
       </c>
       <c r="C104">
-        <v>840.792</v>
+        <v>1040.201</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
-      </c>
-      <c r="E104" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3212,13 +3029,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>840.799</v>
+        <v>1040.202</v>
       </c>
       <c r="C105">
-        <v>842.55</v>
+        <v>1044.805</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3226,16 +3046,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>842.592</v>
+        <v>1044.806</v>
       </c>
       <c r="C106">
-        <v>847.712</v>
+        <v>1056.349</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3243,13 +3063,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>847.722</v>
+        <v>1056.35</v>
       </c>
       <c r="C107">
-        <v>849.098</v>
-      </c>
-      <c r="E107" t="s">
-        <v>196</v>
+        <v>1058.653</v>
+      </c>
+      <c r="D107" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3257,16 +3077,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>849.14</v>
+        <v>1058.654</v>
       </c>
       <c r="C108">
-        <v>853.77</v>
+        <v>1076.86</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3274,16 +3094,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>853.812</v>
+        <v>1076.861</v>
       </c>
       <c r="C109">
-        <v>857.5650000000001</v>
+        <v>1079.253</v>
       </c>
       <c r="D109" t="s">
         <v>81</v>
-      </c>
-      <c r="E109" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3291,16 +3108,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>857.607</v>
+        <v>1079.254</v>
       </c>
       <c r="C110">
-        <v>868.3140000000001</v>
+        <v>1090.772</v>
       </c>
       <c r="D110" t="s">
         <v>82</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3308,16 +3125,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>868.3150000000001</v>
+        <v>1090.773</v>
       </c>
       <c r="C111">
-        <v>888.85</v>
+        <v>1097.441</v>
       </c>
       <c r="D111" t="s">
         <v>83</v>
       </c>
       <c r="E111" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3325,16 +3142,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>888.851</v>
+        <v>1097.442</v>
       </c>
       <c r="C112">
-        <v>898.092</v>
+        <v>1115.962</v>
       </c>
       <c r="D112" t="s">
         <v>84</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3342,16 +3159,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>898.093</v>
+        <v>1115.963</v>
       </c>
       <c r="C113">
-        <v>900.409</v>
+        <v>1118.021</v>
       </c>
       <c r="D113" t="s">
         <v>85</v>
-      </c>
-      <c r="E113" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3359,16 +3173,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>900.41</v>
+        <v>1118.022</v>
       </c>
       <c r="C114">
-        <v>911.681</v>
+        <v>1120.341</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3376,13 +3187,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>911.682</v>
+        <v>1120.342</v>
       </c>
       <c r="C115">
-        <v>913.982</v>
+        <v>1143.266</v>
       </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E115" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3390,16 +3204,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>913.9829999999999</v>
+        <v>1143.267</v>
       </c>
       <c r="C116">
-        <v>916.293</v>
+        <v>1145.558</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3407,16 +3218,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>916.294</v>
+        <v>1145.559</v>
       </c>
       <c r="C117">
-        <v>920.909</v>
+        <v>1193.109</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3424,16 +3235,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>920.91</v>
+        <v>1193.151</v>
       </c>
       <c r="C118">
-        <v>930.131</v>
-      </c>
-      <c r="D118" t="s">
-        <v>88</v>
+        <v>1194.443</v>
       </c>
       <c r="E118" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3441,13 +3249,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>930.1319999999999</v>
+        <v>1194.485</v>
       </c>
       <c r="C119">
-        <v>932.467</v>
-      </c>
-      <c r="D119" t="s">
-        <v>89</v>
+        <v>1196.403</v>
+      </c>
+      <c r="E119" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3455,16 +3263,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>932.468</v>
+        <v>1198.531</v>
       </c>
       <c r="C120">
-        <v>939.402</v>
-      </c>
-      <c r="D120" t="s">
-        <v>90</v>
+        <v>1199.532</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3472,16 +3277,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>939.403</v>
+        <v>1199.573</v>
       </c>
       <c r="C121">
-        <v>944.027</v>
-      </c>
-      <c r="D121" t="s">
-        <v>91</v>
+        <v>1200.741</v>
       </c>
       <c r="E121" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3489,16 +3291,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>944.028</v>
+        <v>1200.783</v>
       </c>
       <c r="C122">
-        <v>948.398</v>
-      </c>
-      <c r="D122" t="s">
-        <v>92</v>
+        <v>1202.451</v>
       </c>
       <c r="E122" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3506,16 +3305,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>948.399</v>
+        <v>1202.493</v>
       </c>
       <c r="C123">
-        <v>953.022</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
+        <v>1205.412</v>
       </c>
       <c r="E123" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3523,16 +3319,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>953.023</v>
+        <v>1205.454</v>
       </c>
       <c r="C124">
-        <v>955.342</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
+        <v>1209.5</v>
       </c>
       <c r="E124" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3540,16 +3333,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>955.343</v>
+        <v>1209.542</v>
       </c>
       <c r="C125">
-        <v>971.2810000000001</v>
-      </c>
-      <c r="D125" t="s">
-        <v>93</v>
+        <v>1210.918</v>
       </c>
       <c r="E125" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3557,16 +3347,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>971.282</v>
+        <v>1210.96</v>
       </c>
       <c r="C126">
-        <v>978.224</v>
-      </c>
-      <c r="D126" t="s">
-        <v>94</v>
+        <v>1212.211</v>
       </c>
       <c r="E126" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3574,16 +3361,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>978.225</v>
+        <v>1212.252</v>
       </c>
       <c r="C127">
-        <v>998.08</v>
-      </c>
-      <c r="D127" t="s">
-        <v>95</v>
+        <v>1213.963</v>
       </c>
       <c r="E127" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3591,16 +3375,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>999.054</v>
+        <v>1214.005</v>
       </c>
       <c r="C128">
-        <v>1005.962</v>
-      </c>
-      <c r="D128" t="s">
-        <v>96</v>
+        <v>1217.216</v>
       </c>
       <c r="E128" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3608,16 +3389,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1005.963</v>
+        <v>1217.257</v>
       </c>
       <c r="C129">
-        <v>1028.801</v>
-      </c>
-      <c r="D129" t="s">
-        <v>97</v>
+        <v>1218.801</v>
       </c>
       <c r="E129" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3625,16 +3403,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1028.802</v>
+        <v>1218.843</v>
       </c>
       <c r="C130">
-        <v>1033.461</v>
-      </c>
-      <c r="D130" t="s">
-        <v>98</v>
+        <v>1221.261</v>
       </c>
       <c r="E130" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3642,13 +3417,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1033.462</v>
+        <v>1221.303</v>
       </c>
       <c r="C131">
-        <v>1035.564</v>
-      </c>
-      <c r="D131" t="s">
-        <v>5</v>
+        <v>1223.43</v>
+      </c>
+      <c r="E131" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3656,13 +3431,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1035.565</v>
+        <v>1230.104</v>
       </c>
       <c r="C132">
-        <v>1037.89</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
+        <v>1232.773</v>
+      </c>
+      <c r="E132" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3670,13 +3445,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1037.891</v>
+        <v>1232.815</v>
       </c>
       <c r="C133">
-        <v>1040.201</v>
-      </c>
-      <c r="D133" t="s">
-        <v>5</v>
+        <v>1235.359</v>
+      </c>
+      <c r="E133" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3684,16 +3459,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1040.202</v>
+        <v>1235.401</v>
       </c>
       <c r="C134">
-        <v>1044.805</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
+        <v>1236.736</v>
       </c>
       <c r="E134" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3701,16 +3473,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1044.806</v>
+        <v>1236.777</v>
       </c>
       <c r="C135">
-        <v>1056.349</v>
-      </c>
-      <c r="D135" t="s">
-        <v>99</v>
+        <v>1238.654</v>
       </c>
       <c r="E135" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3718,13 +3487,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1056.35</v>
+        <v>1238.696</v>
       </c>
       <c r="C136">
-        <v>1058.653</v>
-      </c>
-      <c r="D136" t="s">
-        <v>100</v>
+        <v>1240.99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3732,16 +3501,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1058.654</v>
+        <v>1242.449</v>
       </c>
       <c r="C137">
-        <v>1076.86</v>
-      </c>
-      <c r="D137" t="s">
-        <v>101</v>
+        <v>1244.077</v>
       </c>
       <c r="E137" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3749,13 +3515,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1076.861</v>
+        <v>1244.118</v>
       </c>
       <c r="C138">
-        <v>1079.253</v>
-      </c>
-      <c r="D138" t="s">
-        <v>102</v>
+        <v>1245.578</v>
+      </c>
+      <c r="E138" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3763,16 +3529,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1079.254</v>
+        <v>1245.619</v>
       </c>
       <c r="C139">
-        <v>1090.772</v>
-      </c>
-      <c r="D139" t="s">
-        <v>103</v>
+        <v>1247.997</v>
       </c>
       <c r="E139" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3780,16 +3543,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1090.773</v>
+        <v>1248.039</v>
       </c>
       <c r="C140">
-        <v>1097.441</v>
-      </c>
-      <c r="D140" t="s">
-        <v>104</v>
+        <v>1249.415</v>
       </c>
       <c r="E140" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3797,16 +3557,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1097.442</v>
+        <v>1249.456</v>
       </c>
       <c r="C141">
-        <v>1102.643</v>
-      </c>
-      <c r="D141" t="s">
-        <v>105</v>
+        <v>1251.792</v>
       </c>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3814,16 +3571,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1102.685</v>
+        <v>1251.834</v>
       </c>
       <c r="C142">
-        <v>1106.981</v>
-      </c>
-      <c r="D142" t="s">
-        <v>106</v>
+        <v>1253.627</v>
       </c>
       <c r="E142" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3831,13 +3585,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1107.023</v>
+        <v>1253.669</v>
       </c>
       <c r="C143">
-        <v>1108.608</v>
+        <v>1254.754</v>
       </c>
       <c r="E143" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3845,16 +3599,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1108.988</v>
+        <v>1254.795</v>
       </c>
       <c r="C144">
-        <v>1115.962</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
+        <v>1256.047</v>
       </c>
       <c r="E144" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3862,13 +3613,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1115.963</v>
+        <v>1256.089</v>
       </c>
       <c r="C145">
-        <v>1118.021</v>
-      </c>
-      <c r="D145" t="s">
-        <v>108</v>
+        <v>1258.257</v>
+      </c>
+      <c r="E145" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3876,13 +3627,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1118.022</v>
+        <v>1258.298</v>
       </c>
       <c r="C146">
-        <v>1120.341</v>
-      </c>
-      <c r="D146" t="s">
-        <v>5</v>
+        <v>1261.094</v>
+      </c>
+      <c r="E146" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3890,16 +3641,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1120.342</v>
+        <v>1262.72</v>
       </c>
       <c r="C147">
-        <v>1143.266</v>
-      </c>
-      <c r="D147" t="s">
-        <v>109</v>
+        <v>1264.722</v>
       </c>
       <c r="E147" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3907,13 +3655,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1143.267</v>
+        <v>1264.764</v>
       </c>
       <c r="C148">
-        <v>1145.558</v>
-      </c>
-      <c r="D148" t="s">
-        <v>5</v>
+        <v>1266.557</v>
+      </c>
+      <c r="E148" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3921,16 +3669,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1145.559</v>
+        <v>1266.599</v>
       </c>
       <c r="C149">
-        <v>1155.154</v>
-      </c>
-      <c r="D149" t="s">
-        <v>110</v>
+        <v>1268.517</v>
       </c>
       <c r="E149" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3938,13 +3683,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1155.195</v>
+        <v>1268.559</v>
       </c>
       <c r="C150">
-        <v>1156.572</v>
+        <v>1271.687</v>
       </c>
       <c r="E150" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3952,16 +3697,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1156.614</v>
+        <v>1271.729</v>
       </c>
       <c r="C151">
-        <v>1168.626</v>
-      </c>
-      <c r="D151" t="s">
-        <v>111</v>
+        <v>1273.313</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3969,13 +3711,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1168.668</v>
+        <v>1273.355</v>
       </c>
       <c r="C152">
-        <v>1170.336</v>
+        <v>1275.524</v>
       </c>
       <c r="E152" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3983,16 +3725,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1170.377</v>
+        <v>1275.566</v>
       </c>
       <c r="C153">
-        <v>1193.109</v>
-      </c>
-      <c r="D153" t="s">
-        <v>112</v>
+        <v>1277.068</v>
       </c>
       <c r="E153" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4000,13 +3739,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1193.151</v>
+        <v>1277.11</v>
       </c>
       <c r="C154">
-        <v>1194.443</v>
+        <v>1278.569</v>
       </c>
       <c r="E154" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4014,13 +3753,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1194.485</v>
+        <v>1278.611</v>
       </c>
       <c r="C155">
-        <v>1196.403</v>
+        <v>1279.946</v>
       </c>
       <c r="E155" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4028,13 +3767,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1198.531</v>
+        <v>1279.987</v>
       </c>
       <c r="C156">
-        <v>1199.532</v>
+        <v>1281.03</v>
       </c>
       <c r="E156" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4042,13 +3781,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1199.573</v>
+        <v>1282.156</v>
       </c>
       <c r="C157">
-        <v>1200.741</v>
+        <v>1283.95</v>
       </c>
       <c r="E157" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4056,13 +3795,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1200.783</v>
+        <v>1283.991</v>
       </c>
       <c r="C158">
-        <v>1202.451</v>
+        <v>1285.076</v>
       </c>
       <c r="E158" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4070,13 +3809,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1202.493</v>
+        <v>1285.118</v>
       </c>
       <c r="C159">
-        <v>1205.412</v>
+        <v>1286.577</v>
       </c>
       <c r="E159" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4084,13 +3823,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1205.454</v>
+        <v>1286.619</v>
       </c>
       <c r="C160">
-        <v>1209.5</v>
+        <v>1287.745</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4098,13 +3837,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1209.542</v>
+        <v>1287.787</v>
       </c>
       <c r="C161">
-        <v>1210.918</v>
+        <v>1289.122</v>
       </c>
       <c r="E161" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4112,13 +3851,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1210.96</v>
+        <v>1289.163</v>
       </c>
       <c r="C162">
-        <v>1212.211</v>
+        <v>1290.831</v>
       </c>
       <c r="E162" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4126,13 +3865,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1212.252</v>
+        <v>1290.873</v>
       </c>
       <c r="C163">
-        <v>1213.963</v>
+        <v>1292.083</v>
       </c>
       <c r="E163" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4140,13 +3879,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1214.005</v>
+        <v>1292.125</v>
       </c>
       <c r="C164">
-        <v>1217.216</v>
+        <v>1294.001</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4154,13 +3893,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1217.257</v>
+        <v>1294.043</v>
       </c>
       <c r="C165">
-        <v>1218.801</v>
+        <v>1295.502</v>
       </c>
       <c r="E165" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4168,13 +3907,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1218.843</v>
+        <v>1295.544</v>
       </c>
       <c r="C166">
-        <v>1221.261</v>
+        <v>1297.337</v>
       </c>
       <c r="E166" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4182,13 +3921,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1221.303</v>
+        <v>1298.631</v>
       </c>
       <c r="C167">
-        <v>1223.43</v>
+        <v>1301.383</v>
       </c>
       <c r="E167" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4196,13 +3935,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1230.104</v>
+        <v>1304.386</v>
       </c>
       <c r="C168">
-        <v>1232.773</v>
+        <v>1306.097</v>
       </c>
       <c r="E168" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4210,13 +3949,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1232.815</v>
+        <v>1307.974</v>
       </c>
       <c r="C169">
-        <v>1235.359</v>
+        <v>1309.433</v>
       </c>
       <c r="E169" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4224,13 +3963,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1235.401</v>
+        <v>1309.475</v>
       </c>
       <c r="C170">
-        <v>1236.736</v>
+        <v>1311.144</v>
       </c>
       <c r="E170" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4238,13 +3977,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1236.777</v>
+        <v>1311.185</v>
       </c>
       <c r="C171">
-        <v>1238.654</v>
+        <v>1312.478</v>
       </c>
       <c r="E171" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4252,13 +3991,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1238.696</v>
+        <v>1312.519</v>
       </c>
       <c r="C172">
-        <v>1240.99</v>
+        <v>1314.105</v>
       </c>
       <c r="E172" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4266,13 +4005,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1242.449</v>
+        <v>1314.147</v>
       </c>
       <c r="C173">
-        <v>1244.077</v>
+        <v>1315.231</v>
       </c>
       <c r="E173" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4280,13 +4019,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1244.118</v>
+        <v>1315.273</v>
       </c>
       <c r="C174">
-        <v>1245.578</v>
+        <v>1316.69</v>
       </c>
       <c r="E174" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4294,13 +4033,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1245.619</v>
+        <v>1316.732</v>
       </c>
       <c r="C175">
-        <v>1247.997</v>
+        <v>1318.151</v>
       </c>
       <c r="E175" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4308,13 +4047,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1248.039</v>
+        <v>1318.192</v>
       </c>
       <c r="C176">
-        <v>1249.415</v>
+        <v>1319.026</v>
       </c>
       <c r="E176" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4322,13 +4061,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1249.456</v>
+        <v>1320.486</v>
       </c>
       <c r="C177">
-        <v>1251.792</v>
+        <v>1321.862</v>
       </c>
       <c r="E177" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4336,13 +4075,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1251.834</v>
+        <v>1321.904</v>
       </c>
       <c r="C178">
-        <v>1253.627</v>
+        <v>1324.364</v>
       </c>
       <c r="E178" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4350,13 +4089,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1253.669</v>
+        <v>1324.406</v>
       </c>
       <c r="C179">
-        <v>1254.754</v>
+        <v>1326.575</v>
       </c>
       <c r="E179" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4364,13 +4103,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1254.795</v>
+        <v>1326.617</v>
       </c>
       <c r="C180">
-        <v>1256.047</v>
+        <v>1328.619</v>
       </c>
       <c r="E180" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4378,13 +4117,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1256.089</v>
+        <v>1328.661</v>
       </c>
       <c r="C181">
-        <v>1258.257</v>
+        <v>1330.663</v>
       </c>
       <c r="E181" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4392,13 +4131,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1258.298</v>
+        <v>1330.704</v>
       </c>
       <c r="C182">
-        <v>1261.094</v>
+        <v>1331.705</v>
       </c>
       <c r="E182" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4406,13 +4145,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1262.72</v>
+        <v>1331.747</v>
       </c>
       <c r="C183">
-        <v>1264.722</v>
+        <v>1333.707</v>
       </c>
       <c r="E183" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4420,13 +4159,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1264.764</v>
+        <v>1338.712</v>
       </c>
       <c r="C184">
-        <v>1266.557</v>
+        <v>1340.214</v>
       </c>
       <c r="E184" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4434,517 +4173,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1266.599</v>
+        <v>1340.256</v>
       </c>
       <c r="C185">
-        <v>1268.517</v>
+        <v>1341.632</v>
       </c>
       <c r="E185" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>1268.559</v>
-      </c>
-      <c r="C186">
-        <v>1271.687</v>
-      </c>
-      <c r="E186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>1271.729</v>
-      </c>
-      <c r="C187">
-        <v>1273.313</v>
-      </c>
-      <c r="E187" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>1273.355</v>
-      </c>
-      <c r="C188">
-        <v>1275.524</v>
-      </c>
-      <c r="E188" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>1275.566</v>
-      </c>
-      <c r="C189">
-        <v>1277.068</v>
-      </c>
-      <c r="E189" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>1277.11</v>
-      </c>
-      <c r="C190">
-        <v>1278.569</v>
-      </c>
-      <c r="E190" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>1278.611</v>
-      </c>
-      <c r="C191">
-        <v>1279.946</v>
-      </c>
-      <c r="E191" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>1279.987</v>
-      </c>
-      <c r="C192">
-        <v>1281.03</v>
-      </c>
-      <c r="E192" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>1282.156</v>
-      </c>
-      <c r="C193">
-        <v>1283.95</v>
-      </c>
-      <c r="E193" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>1283.991</v>
-      </c>
-      <c r="C194">
-        <v>1285.076</v>
-      </c>
-      <c r="E194" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>1285.118</v>
-      </c>
-      <c r="C195">
-        <v>1286.577</v>
-      </c>
-      <c r="E195" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>1286.619</v>
-      </c>
-      <c r="C196">
-        <v>1287.745</v>
-      </c>
-      <c r="E196" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>1287.787</v>
-      </c>
-      <c r="C197">
-        <v>1289.122</v>
-      </c>
-      <c r="E197" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>1289.163</v>
-      </c>
-      <c r="C198">
-        <v>1290.831</v>
-      </c>
-      <c r="E198" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>1290.873</v>
-      </c>
-      <c r="C199">
-        <v>1292.083</v>
-      </c>
-      <c r="E199" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>1292.125</v>
-      </c>
-      <c r="C200">
-        <v>1294.001</v>
-      </c>
-      <c r="E200" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>1294.043</v>
-      </c>
-      <c r="C201">
-        <v>1295.502</v>
-      </c>
-      <c r="E201" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>1295.544</v>
-      </c>
-      <c r="C202">
-        <v>1297.337</v>
-      </c>
-      <c r="E202" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>1298.631</v>
-      </c>
-      <c r="C203">
-        <v>1301.383</v>
-      </c>
-      <c r="E203" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>1304.386</v>
-      </c>
-      <c r="C204">
-        <v>1306.097</v>
-      </c>
-      <c r="E204" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>1307.974</v>
-      </c>
-      <c r="C205">
-        <v>1309.433</v>
-      </c>
-      <c r="E205" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>1309.475</v>
-      </c>
-      <c r="C206">
-        <v>1311.144</v>
-      </c>
-      <c r="E206" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>1311.185</v>
-      </c>
-      <c r="C207">
-        <v>1312.478</v>
-      </c>
-      <c r="E207" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>1312.519</v>
-      </c>
-      <c r="C208">
-        <v>1314.105</v>
-      </c>
-      <c r="E208" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>1314.147</v>
-      </c>
-      <c r="C209">
-        <v>1315.231</v>
-      </c>
-      <c r="E209" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>1315.273</v>
-      </c>
-      <c r="C210">
-        <v>1316.69</v>
-      </c>
-      <c r="E210" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>1316.732</v>
-      </c>
-      <c r="C211">
-        <v>1318.151</v>
-      </c>
-      <c r="E211" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>1318.192</v>
-      </c>
-      <c r="C212">
-        <v>1319.026</v>
-      </c>
-      <c r="E212" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>1320.486</v>
-      </c>
-      <c r="C213">
-        <v>1321.862</v>
-      </c>
-      <c r="E213" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>1321.904</v>
-      </c>
-      <c r="C214">
-        <v>1324.364</v>
-      </c>
-      <c r="E214" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>1324.406</v>
-      </c>
-      <c r="C215">
-        <v>1326.575</v>
-      </c>
-      <c r="E215" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>1326.617</v>
-      </c>
-      <c r="C216">
-        <v>1328.619</v>
-      </c>
-      <c r="E216" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>1328.661</v>
-      </c>
-      <c r="C217">
-        <v>1330.663</v>
-      </c>
-      <c r="E217" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>1330.704</v>
-      </c>
-      <c r="C218">
-        <v>1331.705</v>
-      </c>
-      <c r="E218" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>1331.747</v>
-      </c>
-      <c r="C219">
-        <v>1333.707</v>
-      </c>
-      <c r="E219" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>1338.712</v>
-      </c>
-      <c r="C220">
-        <v>1340.214</v>
-      </c>
-      <c r="E220" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>1340.256</v>
-      </c>
-      <c r="C221">
-        <v>1341.632</v>
-      </c>
-      <c r="E221" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
